--- a/Projects/CCRU/Data/KPIs_2018/Contract Execution 2018.xlsx
+++ b/Projects/CCRU/Data/KPIs_2018/Contract Execution 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">13,14,15</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH Cooler </t>
+    <t xml:space="preserve">CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CCH Cooler Doors</t>
@@ -620,14 +620,14 @@
   </sheetPr>
   <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
@@ -637,18 +637,18 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.1417004048583"/>
@@ -768,41 +768,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -1988,41 +1988,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -3202,41 +3202,41 @@
   </sheetPr>
   <dimension ref="1:24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -4556,43 +4556,43 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="33" min="30" style="4" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="1.92712550607287"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="1.82186234817814"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -5905,41 +5905,41 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -7291,41 +7291,41 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="1021" style="4" width="9.10526315789474"/>
@@ -8648,41 +8648,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -9868,41 +9868,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -11088,41 +11088,41 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -12455,41 +12455,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
